--- a/public/file/SPMV.xlsx
+++ b/public/file/SPMV.xlsx
@@ -407,16 +407,10 @@
     <t>AS-Flat8</t>
   </si>
   <si>
-    <t>HygonDCU-BW</t>
-  </si>
-  <si>
     <t>single</t>
   </si>
   <si>
     <t>cuSparse</t>
-  </si>
-  <si>
-    <t>NV-A100</t>
   </si>
   <si>
     <t>fp16</t>
@@ -447,6 +441,12 @@
   </si>
   <si>
     <t>pre+solve</t>
+  </si>
+  <si>
+    <t>HygonDCU-BW</t>
+  </si>
+  <si>
+    <t>NV-A100</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A1:DC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05833333333333" defaultRowHeight="14"/>
@@ -4487,10 +4487,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>115</v>
@@ -4810,10 +4810,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>119</v>
@@ -5133,10 +5133,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -5456,10 +5456,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>119</v>
@@ -5779,10 +5779,10 @@
         <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>119</v>
@@ -6102,10 +6102,10 @@
         <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>119</v>
@@ -6425,10 +6425,10 @@
         <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>119</v>
@@ -6748,7 +6748,7 @@
         <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>114</v>
@@ -7068,19 +7068,19 @@
     </row>
     <row r="19" spans="1:107">
       <c r="A19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>117</v>
@@ -7394,10 +7394,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>119</v>
@@ -7717,10 +7717,10 @@
         <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>119</v>
@@ -8040,10 +8040,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>119</v>
@@ -8363,10 +8363,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>119</v>
@@ -8686,10 +8686,10 @@
         <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>119</v>
@@ -9009,10 +9009,10 @@
         <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>119</v>
@@ -9332,10 +9332,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>119</v>
@@ -9652,10 +9652,10 @@
     </row>
     <row r="27" spans="1:107">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>114</v>
@@ -9664,7 +9664,7 @@
         <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>117</v>
@@ -9978,7 +9978,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>114</v>
@@ -10301,7 +10301,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>114</v>
@@ -10624,7 +10624,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>114</v>
@@ -10947,7 +10947,7 @@
         <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>114</v>
@@ -11270,7 +11270,7 @@
         <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>114</v>
@@ -11593,7 +11593,7 @@
         <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>114</v>
@@ -11916,7 +11916,7 @@
         <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>114</v>
@@ -12236,19 +12236,19 @@
     </row>
     <row r="35" spans="1:107">
       <c r="A35" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>117</v>
@@ -12559,13 +12559,13 @@
     </row>
     <row r="36" spans="1:107">
       <c r="A36" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>119</v>
@@ -12882,13 +12882,13 @@
     </row>
     <row r="37" spans="1:107">
       <c r="A37" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>119</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="38" spans="1:107">
       <c r="A38" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>114</v>
@@ -13217,7 +13217,7 @@
         <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>117</v>
@@ -13528,10 +13528,10 @@
     </row>
     <row r="39" spans="1:107">
       <c r="A39" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>114</v>
@@ -13851,10 +13851,10 @@
     </row>
     <row r="40" spans="1:107">
       <c r="A40" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>114</v>
@@ -14189,7 +14189,7 @@
         <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -14512,7 +14512,7 @@
         <v>116</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1">
         <v>0.443</v>
@@ -14835,7 +14835,7 @@
         <v>116</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G44" s="1">
         <v>1.362</v>
@@ -15158,7 +15158,7 @@
         <v>116</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G45" s="1">
         <v>2.537</v>
@@ -15481,7 +15481,7 @@
         <v>116</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1">
         <v>1.566</v>
@@ -15804,7 +15804,7 @@
         <v>116</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1">
         <v>1.629</v>
@@ -16127,7 +16127,7 @@
         <v>116</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G48" s="1">
         <v>2.654</v>
@@ -16450,7 +16450,7 @@
         <v>116</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G49" s="1">
         <v>2.998</v>
@@ -16761,10 +16761,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>115</v>
@@ -16773,7 +16773,7 @@
         <v>116</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -17084,10 +17084,10 @@
         <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>119</v>
@@ -17096,7 +17096,7 @@
         <v>116</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G51" s="1">
         <v>0.443</v>
@@ -17407,10 +17407,10 @@
         <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>119</v>
@@ -17419,7 +17419,7 @@
         <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G52" s="1">
         <v>1.362</v>
@@ -17730,10 +17730,10 @@
         <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>119</v>
@@ -17742,7 +17742,7 @@
         <v>116</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1">
         <v>2.537</v>
@@ -18053,10 +18053,10 @@
         <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>119</v>
@@ -18065,7 +18065,7 @@
         <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G54" s="1">
         <v>1.566</v>
@@ -18376,10 +18376,10 @@
         <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>119</v>
@@ -18388,7 +18388,7 @@
         <v>116</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G55" s="1">
         <v>1.629</v>
@@ -18699,10 +18699,10 @@
         <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>119</v>
@@ -18711,7 +18711,7 @@
         <v>116</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G56" s="1">
         <v>2.654</v>
@@ -19022,7 +19022,7 @@
         <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>114</v>
@@ -19034,7 +19034,7 @@
         <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G57" s="1">
         <v>2.998</v>
@@ -19342,22 +19342,22 @@
     </row>
     <row r="58" spans="1:107">
       <c r="A58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -19668,10 +19668,10 @@
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>119</v>
@@ -19680,7 +19680,7 @@
         <v>116</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G59" s="1">
         <v>0.443</v>
@@ -19991,10 +19991,10 @@
         <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
@@ -20003,7 +20003,7 @@
         <v>116</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G60" s="1">
         <v>1.362</v>
@@ -20314,10 +20314,10 @@
         <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>119</v>
@@ -20326,7 +20326,7 @@
         <v>116</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G61" s="1">
         <v>2.537</v>
@@ -20637,10 +20637,10 @@
         <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
@@ -20649,7 +20649,7 @@
         <v>116</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G62" s="1">
         <v>1.566</v>
@@ -20960,10 +20960,10 @@
         <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
@@ -20972,7 +20972,7 @@
         <v>116</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G63" s="1">
         <v>1.629</v>
@@ -21283,10 +21283,10 @@
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>119</v>
@@ -21295,7 +21295,7 @@
         <v>116</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G64" s="1">
         <v>2.654</v>
@@ -21606,10 +21606,10 @@
         <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>119</v>
@@ -21618,7 +21618,7 @@
         <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G65" s="1">
         <v>2.998</v>
@@ -21926,10 +21926,10 @@
     </row>
     <row r="66" spans="1:107">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>114</v>
@@ -21938,10 +21938,10 @@
         <v>115</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -22252,7 +22252,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>114</v>
@@ -22264,7 +22264,7 @@
         <v>116</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G67" s="1">
         <v>0.443</v>
@@ -22575,7 +22575,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>114</v>
@@ -22587,7 +22587,7 @@
         <v>116</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G68" s="1">
         <v>1.362</v>
@@ -22898,7 +22898,7 @@
         <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>114</v>
@@ -22910,7 +22910,7 @@
         <v>116</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G69" s="1">
         <v>2.537</v>
@@ -23221,7 +23221,7 @@
         <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>114</v>
@@ -23233,7 +23233,7 @@
         <v>116</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G70" s="1">
         <v>1.566</v>
@@ -23544,7 +23544,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>114</v>
@@ -23556,7 +23556,7 @@
         <v>116</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G71" s="1">
         <v>1.629</v>
@@ -23867,7 +23867,7 @@
         <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>114</v>
@@ -23879,7 +23879,7 @@
         <v>116</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G72" s="1">
         <v>2.654</v>
@@ -24190,7 +24190,7 @@
         <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>114</v>
@@ -24202,7 +24202,7 @@
         <v>116</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G73" s="1">
         <v>2.998</v>
@@ -24510,22 +24510,22 @@
     </row>
     <row r="74" spans="1:107">
       <c r="A74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -24833,13 +24833,13 @@
     </row>
     <row r="75" spans="1:107">
       <c r="A75" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>119</v>
@@ -24848,7 +24848,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G75" s="1">
         <v>0.443</v>
@@ -25156,13 +25156,13 @@
     </row>
     <row r="76" spans="1:107">
       <c r="A76" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>119</v>
@@ -25171,7 +25171,7 @@
         <v>116</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G76" s="1">
         <v>1.362</v>
@@ -25479,10 +25479,10 @@
     </row>
     <row r="77" spans="1:107">
       <c r="A77" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>114</v>
@@ -25491,10 +25491,10 @@
         <v>115</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -25802,10 +25802,10 @@
     </row>
     <row r="78" spans="1:107">
       <c r="A78" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>114</v>
@@ -25817,7 +25817,7 @@
         <v>116</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G78" s="1">
         <v>0.443</v>
@@ -26125,10 +26125,10 @@
     </row>
     <row r="79" spans="1:107">
       <c r="A79" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>114</v>
@@ -26140,7 +26140,7 @@
         <v>116</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G79" s="1">
         <v>1.362</v>

--- a/public/file/SPMV.xlsx
+++ b/public/file/SPMV.xlsx
@@ -407,10 +407,16 @@
     <t>AS-Flat8</t>
   </si>
   <si>
+    <t>HygonDCU-BW</t>
+  </si>
+  <si>
     <t>single</t>
   </si>
   <si>
     <t>cuSparse</t>
+  </si>
+  <si>
+    <t>NV-A100</t>
   </si>
   <si>
     <t>fp16</t>
@@ -441,12 +447,6 @@
   </si>
   <si>
     <t>pre+solve</t>
-  </si>
-  <si>
-    <t>HygonDCU-BW</t>
-  </si>
-  <si>
-    <t>NV-A100</t>
   </si>
 </sst>
 </file>
@@ -1439,8 +1439,8 @@
   <sheetPr/>
   <dimension ref="A1:DC79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05833333333333" defaultRowHeight="14"/>
@@ -4487,10 +4487,10 @@
         <v>112</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>115</v>
@@ -4810,10 +4810,10 @@
         <v>118</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>119</v>
@@ -5133,10 +5133,10 @@
         <v>120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>119</v>
@@ -5456,10 +5456,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>119</v>
@@ -5779,10 +5779,10 @@
         <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>119</v>
@@ -6102,10 +6102,10 @@
         <v>123</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>119</v>
@@ -6425,10 +6425,10 @@
         <v>124</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>119</v>
@@ -6748,10 +6748,10 @@
         <v>125</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>119</v>
@@ -7068,19 +7068,19 @@
     </row>
     <row r="19" spans="1:107">
       <c r="A19" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>117</v>
@@ -7394,10 +7394,10 @@
         <v>118</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>119</v>
@@ -7717,10 +7717,10 @@
         <v>120</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>119</v>
@@ -8040,10 +8040,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>119</v>
@@ -8363,10 +8363,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>119</v>
@@ -8686,10 +8686,10 @@
         <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>119</v>
@@ -9009,10 +9009,10 @@
         <v>124</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>119</v>
@@ -9332,10 +9332,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>119</v>
@@ -9652,10 +9652,10 @@
     </row>
     <row r="27" spans="1:107">
       <c r="A27" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>114</v>
@@ -9664,7 +9664,7 @@
         <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>117</v>
@@ -9978,7 +9978,7 @@
         <v>118</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>114</v>
@@ -10301,7 +10301,7 @@
         <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>114</v>
@@ -10624,7 +10624,7 @@
         <v>121</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>114</v>
@@ -10947,7 +10947,7 @@
         <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>114</v>
@@ -11270,7 +11270,7 @@
         <v>123</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>114</v>
@@ -11593,7 +11593,7 @@
         <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>114</v>
@@ -11916,7 +11916,7 @@
         <v>125</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>114</v>
@@ -12236,19 +12236,19 @@
     </row>
     <row r="35" spans="1:107">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>117</v>
@@ -12559,13 +12559,13 @@
     </row>
     <row r="36" spans="1:107">
       <c r="A36" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>119</v>
@@ -12882,13 +12882,13 @@
     </row>
     <row r="37" spans="1:107">
       <c r="A37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>119</v>
@@ -13205,10 +13205,10 @@
     </row>
     <row r="38" spans="1:107">
       <c r="A38" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>114</v>
@@ -13217,7 +13217,7 @@
         <v>115</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>117</v>
@@ -13528,10 +13528,10 @@
     </row>
     <row r="39" spans="1:107">
       <c r="A39" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>114</v>
@@ -13851,10 +13851,10 @@
     </row>
     <row r="40" spans="1:107">
       <c r="A40" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>114</v>
@@ -14189,7 +14189,7 @@
         <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -14512,7 +14512,7 @@
         <v>116</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G43" s="1">
         <v>0.443</v>
@@ -14835,7 +14835,7 @@
         <v>116</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G44" s="1">
         <v>1.362</v>
@@ -15158,7 +15158,7 @@
         <v>116</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G45" s="1">
         <v>2.537</v>
@@ -15481,7 +15481,7 @@
         <v>116</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G46" s="1">
         <v>1.566</v>
@@ -15804,7 +15804,7 @@
         <v>116</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G47" s="1">
         <v>1.629</v>
@@ -16127,7 +16127,7 @@
         <v>116</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G48" s="1">
         <v>2.654</v>
@@ -16450,7 +16450,7 @@
         <v>116</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G49" s="1">
         <v>2.998</v>
@@ -16761,10 +16761,10 @@
         <v>112</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>115</v>
@@ -16773,7 +16773,7 @@
         <v>116</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -17084,10 +17084,10 @@
         <v>118</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>119</v>
@@ -17096,7 +17096,7 @@
         <v>116</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G51" s="1">
         <v>0.443</v>
@@ -17407,10 +17407,10 @@
         <v>120</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>119</v>
@@ -17419,7 +17419,7 @@
         <v>116</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G52" s="1">
         <v>1.362</v>
@@ -17730,10 +17730,10 @@
         <v>121</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>119</v>
@@ -17742,7 +17742,7 @@
         <v>116</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G53" s="1">
         <v>2.537</v>
@@ -18053,10 +18053,10 @@
         <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>119</v>
@@ -18065,7 +18065,7 @@
         <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G54" s="1">
         <v>1.566</v>
@@ -18376,10 +18376,10 @@
         <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>119</v>
@@ -18388,7 +18388,7 @@
         <v>116</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G55" s="1">
         <v>1.629</v>
@@ -18699,10 +18699,10 @@
         <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>119</v>
@@ -18711,7 +18711,7 @@
         <v>116</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G56" s="1">
         <v>2.654</v>
@@ -19022,7 +19022,7 @@
         <v>125</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>114</v>
@@ -19034,7 +19034,7 @@
         <v>116</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G57" s="1">
         <v>2.998</v>
@@ -19342,22 +19342,22 @@
     </row>
     <row r="58" spans="1:107">
       <c r="A58" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -19668,10 +19668,10 @@
         <v>118</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>119</v>
@@ -19680,7 +19680,7 @@
         <v>116</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G59" s="1">
         <v>0.443</v>
@@ -19991,10 +19991,10 @@
         <v>120</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>119</v>
@@ -20003,7 +20003,7 @@
         <v>116</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G60" s="1">
         <v>1.362</v>
@@ -20314,10 +20314,10 @@
         <v>121</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>119</v>
@@ -20326,7 +20326,7 @@
         <v>116</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G61" s="1">
         <v>2.537</v>
@@ -20637,10 +20637,10 @@
         <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>119</v>
@@ -20649,7 +20649,7 @@
         <v>116</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G62" s="1">
         <v>1.566</v>
@@ -20960,10 +20960,10 @@
         <v>123</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>119</v>
@@ -20972,7 +20972,7 @@
         <v>116</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G63" s="1">
         <v>1.629</v>
@@ -21283,10 +21283,10 @@
         <v>124</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>119</v>
@@ -21295,7 +21295,7 @@
         <v>116</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G64" s="1">
         <v>2.654</v>
@@ -21606,10 +21606,10 @@
         <v>125</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>119</v>
@@ -21618,7 +21618,7 @@
         <v>116</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G65" s="1">
         <v>2.998</v>
@@ -21926,10 +21926,10 @@
     </row>
     <row r="66" spans="1:107">
       <c r="A66" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>114</v>
@@ -21938,10 +21938,10 @@
         <v>115</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -22252,7 +22252,7 @@
         <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>114</v>
@@ -22264,7 +22264,7 @@
         <v>116</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G67" s="1">
         <v>0.443</v>
@@ -22575,7 +22575,7 @@
         <v>120</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>114</v>
@@ -22587,7 +22587,7 @@
         <v>116</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G68" s="1">
         <v>1.362</v>
@@ -22898,7 +22898,7 @@
         <v>121</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>114</v>
@@ -22910,7 +22910,7 @@
         <v>116</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G69" s="1">
         <v>2.537</v>
@@ -23221,7 +23221,7 @@
         <v>122</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>114</v>
@@ -23233,7 +23233,7 @@
         <v>116</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G70" s="1">
         <v>1.566</v>
@@ -23544,7 +23544,7 @@
         <v>123</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>114</v>
@@ -23556,7 +23556,7 @@
         <v>116</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G71" s="1">
         <v>1.629</v>
@@ -23867,7 +23867,7 @@
         <v>124</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>114</v>
@@ -23879,7 +23879,7 @@
         <v>116</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G72" s="1">
         <v>2.654</v>
@@ -24190,7 +24190,7 @@
         <v>125</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>114</v>
@@ -24202,7 +24202,7 @@
         <v>116</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G73" s="1">
         <v>2.998</v>
@@ -24510,22 +24510,22 @@
     </row>
     <row r="74" spans="1:107">
       <c r="A74" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -24833,13 +24833,13 @@
     </row>
     <row r="75" spans="1:107">
       <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>119</v>
@@ -24848,7 +24848,7 @@
         <v>116</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G75" s="1">
         <v>0.443</v>
@@ -25156,13 +25156,13 @@
     </row>
     <row r="76" spans="1:107">
       <c r="A76" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>119</v>
@@ -25171,7 +25171,7 @@
         <v>116</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G76" s="1">
         <v>1.362</v>
@@ -25479,10 +25479,10 @@
     </row>
     <row r="77" spans="1:107">
       <c r="A77" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>114</v>
@@ -25491,10 +25491,10 @@
         <v>115</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -25802,10 +25802,10 @@
     </row>
     <row r="78" spans="1:107">
       <c r="A78" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>114</v>
@@ -25817,7 +25817,7 @@
         <v>116</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G78" s="1">
         <v>0.443</v>
@@ -26125,10 +26125,10 @@
     </row>
     <row r="79" spans="1:107">
       <c r="A79" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>114</v>
@@ -26140,7 +26140,7 @@
         <v>116</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G79" s="1">
         <v>1.362</v>

--- a/public/file/SPMV.xlsx
+++ b/public/file/SPMV.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="142">
   <si>
     <t>Kernel</t>
   </si>
@@ -350,6 +350,9 @@
     <t>mat100</t>
   </si>
   <si>
+    <t>新增的mat</t>
+  </si>
+  <si>
     <t>可筛选项（优先筛选2）</t>
   </si>
   <si>
@@ -447,6 +450,9 @@
   </si>
   <si>
     <t>pre+solve</t>
+  </si>
+  <si>
+    <t>测试 Machine&amp;Compiler 项</t>
   </si>
 </sst>
 </file>
@@ -1437,10 +1443,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DC79"/>
+  <dimension ref="A1:DD80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.05833333333333" defaultRowHeight="14"/>
@@ -1456,7 +1464,7 @@
     <col min="108" max="16384" width="9.05833333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.2" customHeight="1" spans="1:107">
+    <row r="1" ht="31.2" customHeight="1" spans="1:108">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1778,25 +1786,28 @@
       <c r="DC1" s="2" t="s">
         <v>106</v>
       </c>
+      <c r="DD1" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" ht="31.2" customHeight="1" spans="1:107">
+    <row r="2" ht="31.2" customHeight="1" spans="1:108">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
@@ -1898,24 +1909,24 @@
       <c r="DB2" s="2"/>
       <c r="DC2" s="2"/>
     </row>
-    <row r="3" spans="1:107">
+    <row r="3" spans="1:108">
       <c r="A3" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2221,24 +2232,24 @@
         <v>0.174911152</v>
       </c>
     </row>
-    <row r="4" spans="1:107">
+    <row r="4" spans="1:108">
       <c r="A4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G4" s="1">
         <v>0.443</v>
@@ -2544,24 +2555,24 @@
         <v>0.429712277</v>
       </c>
     </row>
-    <row r="5" spans="1:107">
+    <row r="5" spans="1:108">
       <c r="A5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G5" s="1">
         <v>1.362</v>
@@ -2867,24 +2878,24 @@
         <v>0.153815643</v>
       </c>
     </row>
-    <row r="6" spans="1:107">
+    <row r="6" spans="1:108">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G6" s="1">
         <v>2.537</v>
@@ -3190,24 +3201,24 @@
         <v>0.040822401</v>
       </c>
     </row>
-    <row r="7" spans="1:107">
+    <row r="7" spans="1:108">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G7" s="1">
         <v>1.566</v>
@@ -3513,24 +3524,24 @@
         <v>0.108240254</v>
       </c>
     </row>
-    <row r="8" spans="1:107">
+    <row r="8" spans="1:108">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1">
         <v>1.629</v>
@@ -3836,24 +3847,24 @@
         <v>0.097348159</v>
       </c>
     </row>
-    <row r="9" spans="1:107">
+    <row r="9" spans="1:108">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G9" s="1">
         <v>2.654</v>
@@ -4159,24 +4170,24 @@
         <v>0.046956159</v>
       </c>
     </row>
-    <row r="10" spans="1:107">
+    <row r="10" spans="1:108">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G10" s="1">
         <v>2.998</v>
@@ -4482,24 +4493,24 @@
         <v>0.038113571</v>
       </c>
     </row>
-    <row r="11" spans="1:107">
+    <row r="11" spans="1:108">
       <c r="A11" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -4805,24 +4816,24 @@
         <v>0.174911152</v>
       </c>
     </row>
-    <row r="12" spans="1:107">
+    <row r="12" spans="1:108">
       <c r="A12" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G12" s="1">
         <v>0.443</v>
@@ -5128,24 +5139,24 @@
         <v>0.429712277</v>
       </c>
     </row>
-    <row r="13" spans="1:107">
+    <row r="13" spans="1:108">
       <c r="A13" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G13" s="1">
         <v>1.362</v>
@@ -5451,24 +5462,24 @@
         <v>0.153815643</v>
       </c>
     </row>
-    <row r="14" spans="1:107">
+    <row r="14" spans="1:108">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G14" s="1">
         <v>2.537</v>
@@ -5774,24 +5785,24 @@
         <v>0.040822401</v>
       </c>
     </row>
-    <row r="15" spans="1:107">
+    <row r="15" spans="1:108">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G15" s="1">
         <v>1.566</v>
@@ -6097,24 +6108,24 @@
         <v>0.108240254</v>
       </c>
     </row>
-    <row r="16" spans="1:107">
+    <row r="16" spans="1:108">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G16" s="1">
         <v>1.629</v>
@@ -6422,22 +6433,22 @@
     </row>
     <row r="17" spans="1:107">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G17" s="1">
         <v>2.654</v>
@@ -6745,22 +6756,22 @@
     </row>
     <row r="18" spans="1:107">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G18" s="1">
         <v>2.998</v>
@@ -7068,22 +7079,22 @@
     </row>
     <row r="19" spans="1:107">
       <c r="A19" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -7391,22 +7402,22 @@
     </row>
     <row r="20" spans="1:107">
       <c r="A20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G20" s="1">
         <v>0.443</v>
@@ -7714,22 +7725,22 @@
     </row>
     <row r="21" spans="1:107">
       <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G21" s="1">
         <v>1.362</v>
@@ -8037,22 +8048,22 @@
     </row>
     <row r="22" spans="1:107">
       <c r="A22" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1">
         <v>2.537</v>
@@ -8360,22 +8371,22 @@
     </row>
     <row r="23" spans="1:107">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G23" s="1">
         <v>1.566</v>
@@ -8683,22 +8694,22 @@
     </row>
     <row r="24" spans="1:107">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1">
         <v>1.629</v>
@@ -9006,22 +9017,22 @@
     </row>
     <row r="25" spans="1:107">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1">
         <v>2.654</v>
@@ -9329,22 +9340,22 @@
     </row>
     <row r="26" spans="1:107">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1">
         <v>2.998</v>
@@ -9652,22 +9663,22 @@
     </row>
     <row r="27" spans="1:107">
       <c r="A27" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -9975,22 +9986,22 @@
     </row>
     <row r="28" spans="1:107">
       <c r="A28" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="G28" s="1">
         <v>0.443</v>
@@ -10298,22 +10309,22 @@
     </row>
     <row r="29" spans="1:107">
       <c r="A29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G29" s="1">
         <v>1.362</v>
@@ -10621,22 +10632,22 @@
     </row>
     <row r="30" spans="1:107">
       <c r="A30" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G30" s="1">
         <v>2.537</v>
@@ -10944,22 +10955,22 @@
     </row>
     <row r="31" spans="1:107">
       <c r="A31" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G31" s="1">
         <v>1.566</v>
@@ -11267,22 +11278,22 @@
     </row>
     <row r="32" spans="1:107">
       <c r="A32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G32" s="1">
         <v>1.629</v>
@@ -11590,22 +11601,22 @@
     </row>
     <row r="33" spans="1:107">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G33" s="1">
         <v>2.654</v>
@@ -11913,22 +11924,22 @@
     </row>
     <row r="34" spans="1:107">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G34" s="1">
         <v>2.998</v>
@@ -12236,22 +12247,22 @@
     </row>
     <row r="35" spans="1:107">
       <c r="A35" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -12559,22 +12570,22 @@
     </row>
     <row r="36" spans="1:107">
       <c r="A36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="1">
         <v>0.443</v>
@@ -12882,22 +12893,22 @@
     </row>
     <row r="37" spans="1:107">
       <c r="A37" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="1">
         <v>1.362</v>
@@ -13205,22 +13216,22 @@
     </row>
     <row r="38" spans="1:107">
       <c r="A38" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -13528,22 +13539,22 @@
     </row>
     <row r="39" spans="1:107">
       <c r="A39" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1">
         <v>0.443</v>
@@ -13851,22 +13862,22 @@
     </row>
     <row r="40" spans="1:107">
       <c r="A40" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G40" s="1">
         <v>1.362</v>
@@ -14174,22 +14185,22 @@
     </row>
     <row r="42" spans="1:107">
       <c r="A42" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -14497,22 +14508,22 @@
     </row>
     <row r="43" spans="1:107">
       <c r="A43" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G43" s="1">
         <v>0.443</v>
@@ -14820,22 +14831,22 @@
     </row>
     <row r="44" spans="1:107">
       <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G44" s="1">
         <v>1.362</v>
@@ -15143,22 +15154,22 @@
     </row>
     <row r="45" spans="1:107">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G45" s="1">
         <v>2.537</v>
@@ -15466,22 +15477,22 @@
     </row>
     <row r="46" spans="1:107">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G46" s="1">
         <v>1.566</v>
@@ -15789,22 +15800,22 @@
     </row>
     <row r="47" spans="1:107">
       <c r="A47" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G47" s="1">
         <v>1.629</v>
@@ -16112,22 +16123,22 @@
     </row>
     <row r="48" spans="1:107">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G48" s="1">
         <v>2.654</v>
@@ -16435,22 +16446,22 @@
     </row>
     <row r="49" spans="1:107">
       <c r="A49" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G49" s="1">
         <v>2.998</v>
@@ -16758,22 +16769,22 @@
     </row>
     <row r="50" spans="1:107">
       <c r="A50" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -17081,22 +17092,22 @@
     </row>
     <row r="51" spans="1:107">
       <c r="A51" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G51" s="1">
         <v>0.443</v>
@@ -17404,22 +17415,22 @@
     </row>
     <row r="52" spans="1:107">
       <c r="A52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G52" s="1">
         <v>1.362</v>
@@ -17727,22 +17738,22 @@
     </row>
     <row r="53" spans="1:107">
       <c r="A53" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G53" s="1">
         <v>2.537</v>
@@ -18050,22 +18061,22 @@
     </row>
     <row r="54" spans="1:107">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G54" s="1">
         <v>1.566</v>
@@ -18373,22 +18384,22 @@
     </row>
     <row r="55" spans="1:107">
       <c r="A55" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G55" s="1">
         <v>1.629</v>
@@ -18696,22 +18707,22 @@
     </row>
     <row r="56" spans="1:107">
       <c r="A56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G56" s="1">
         <v>2.654</v>
@@ -19019,22 +19030,22 @@
     </row>
     <row r="57" spans="1:107">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G57" s="1">
         <v>2.998</v>
@@ -19342,22 +19353,22 @@
     </row>
     <row r="58" spans="1:107">
       <c r="A58" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -19665,22 +19676,22 @@
     </row>
     <row r="59" spans="1:107">
       <c r="A59" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G59" s="1">
         <v>0.443</v>
@@ -19988,22 +19999,22 @@
     </row>
     <row r="60" spans="1:107">
       <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G60" s="1">
         <v>1.362</v>
@@ -20311,22 +20322,22 @@
     </row>
     <row r="61" spans="1:107">
       <c r="A61" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G61" s="1">
         <v>2.537</v>
@@ -20634,22 +20645,22 @@
     </row>
     <row r="62" spans="1:107">
       <c r="A62" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G62" s="1">
         <v>1.566</v>
@@ -20957,22 +20968,22 @@
     </row>
     <row r="63" spans="1:107">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G63" s="1">
         <v>1.629</v>
@@ -21280,22 +21291,22 @@
     </row>
     <row r="64" spans="1:107">
       <c r="A64" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G64" s="1">
         <v>2.654</v>
@@ -21603,22 +21614,22 @@
     </row>
     <row r="65" spans="1:107">
       <c r="A65" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G65" s="1">
         <v>2.998</v>
@@ -21926,22 +21937,22 @@
     </row>
     <row r="66" spans="1:107">
       <c r="A66" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="F66" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -22249,22 +22260,22 @@
     </row>
     <row r="67" spans="1:107">
       <c r="A67" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G67" s="1">
         <v>0.443</v>
@@ -22572,22 +22583,22 @@
     </row>
     <row r="68" spans="1:107">
       <c r="A68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G68" s="1">
         <v>1.362</v>
@@ -22895,22 +22906,22 @@
     </row>
     <row r="69" spans="1:107">
       <c r="A69" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G69" s="1">
         <v>2.537</v>
@@ -23218,22 +23229,22 @@
     </row>
     <row r="70" spans="1:107">
       <c r="A70" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G70" s="1">
         <v>1.566</v>
@@ -23541,22 +23552,22 @@
     </row>
     <row r="71" spans="1:107">
       <c r="A71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G71" s="1">
         <v>1.629</v>
@@ -23864,22 +23875,22 @@
     </row>
     <row r="72" spans="1:107">
       <c r="A72" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G72" s="1">
         <v>2.654</v>
@@ -24187,22 +24198,22 @@
     </row>
     <row r="73" spans="1:107">
       <c r="A73" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G73" s="1">
         <v>2.998</v>
@@ -24510,22 +24521,22 @@
     </row>
     <row r="74" spans="1:107">
       <c r="A74" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -24833,22 +24844,22 @@
     </row>
     <row r="75" spans="1:107">
       <c r="A75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B75" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G75" s="1">
         <v>0.443</v>
@@ -25156,22 +25167,22 @@
     </row>
     <row r="76" spans="1:107">
       <c r="A76" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G76" s="1">
         <v>1.362</v>
@@ -25479,22 +25490,22 @@
     </row>
     <row r="77" spans="1:107">
       <c r="A77" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -25802,22 +25813,22 @@
     </row>
     <row r="78" spans="1:107">
       <c r="A78" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G78" s="1">
         <v>0.443</v>
@@ -26125,22 +26136,22 @@
     </row>
     <row r="79" spans="1:107">
       <c r="A79" s="5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G79" s="1">
         <v>1.362</v>
@@ -26444,6 +26455,11 @@
       </c>
       <c r="DC79" s="1">
         <v>0.153815643</v>
+      </c>
+    </row>
+    <row r="80" spans="1:107">
+      <c r="B80" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
